--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3030036.757497847</v>
+        <v>3025899.600247697</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8541127.360805275</v>
+        <v>8541127.360805277</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>39.67788952565776</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -718,16 +718,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>172.4892219530502</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>126.0161331034651</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>84.97470294081108</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>344.4240394120324</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>114.5059581839125</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>22.79210305882372</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>94.8442237287861</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>154.2689517016423</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>124.9132185186478</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>55.62032083673852</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>31.1081107271929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695533</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T13" t="n">
-        <v>73.578497753872</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.8605623338606</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.607010073152018</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>34.67929910923862</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>104.1233804225859</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>169.3382687475393</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>70.04554881124335</v>
       </c>
       <c r="V28" t="n">
-        <v>122.4770547252869</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>39.19314274110882</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>23.62554568141315</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>210.7043627510575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>7.408064079031379</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>67.0077147539439</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>72.57619040703501</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1182.87310169792</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>813.9105847575083</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D2" t="n">
-        <v>455.6448861507579</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
         <v>51.2467865680031</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.012626270159</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1747.243971000045</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1573.012433673732</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1182.87310169792</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4412,25 +4412,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>898.2468199959893</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>729.3106370680824</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>579.1939976557467</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>431.2809040733536</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>284.3909565754432</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1028.42245167113</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>739.005281634169</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X4" t="n">
-        <v>739.005281634169</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>518.2127024906389</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1653.287154902436</v>
+        <v>1195.924014069019</v>
       </c>
       <c r="C5" t="n">
-        <v>1284.324637962024</v>
+        <v>1195.924014069019</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>1195.924014069019</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>810.1357614707747</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>399.1498566811671</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.593687005981</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270161</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.94973892659</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1653.287154902436</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1653.287154902436</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y5" t="n">
-        <v>1653.287154902436</v>
+        <v>1582.523854133141</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605189</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919907</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924318</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.0604424885609</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C7" t="n">
-        <v>180.1242595606539</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>180.1242595606539</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>180.1242595606539</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>180.1242595606539</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4752,25 +4752,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253779</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253779</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W7" t="n">
-        <v>758.6984582168179</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X7" t="n">
-        <v>530.7089073188006</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.7089073188006</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>844.329830759459</v>
+        <v>1373.778212738965</v>
       </c>
       <c r="C8" t="n">
-        <v>844.329830759459</v>
+        <v>1373.778212738965</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>1015.512514132215</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>629.7242615339705</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>218.738356744363</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>207.0740105090559</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.593687005981</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270161</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.012626270161</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>1747.243971000047</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>1621.069002799393</v>
+        <v>1373.778212738965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1230.929670823581</v>
+        <v>1373.778212738965</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310616</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625334</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>970.4000522258369</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1357.685180822782</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>677.9225319085499</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>621.7403896492181</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>250.6555853275961</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>82.66912063587472</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>82.66912063587472</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312206</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387896</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>859.5709967387896</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>859.5709967387896</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>859.5709967387896</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5032,55 +5032,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511905</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T13" t="n">
-        <v>2122.740830584667</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>1833.665603928865</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1578.981115722978</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1578.981115722978</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,19 +5293,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558.0193492433381</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433381</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>739.6678140735778</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5518,7 +5518,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5606,16 +5606,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>634.334587849125</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5712,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,52 +5749,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.445529061503</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3229.653730559302</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C22" t="n">
-        <v>3060.717547631396</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D22" t="n">
-        <v>2910.60090821906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4404.185983673937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4149.50149546805</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3860.084325431089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3632.094774533072</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y22" t="n">
-        <v>3411.302195389542</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557012</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>3060.83890577277</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>3602.972384395806</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>4230.570347950413</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>699.2677182139842</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>530.3315352860773</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1329.698313085771</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>1101.708762187754</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>880.9161830442239</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>417.9651836029407</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>913.2907898186995</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V28" t="n">
-        <v>1851.318825887154</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6548,13 +6548,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>988.1395539230176</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>819.2033709951107</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.987318831765</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1618.570148794805</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.580597896787</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>1169.788018753257</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>315.9123021921476</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D34" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6961,25 +6961,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1984.229855840035</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.154629184233</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1695.154629184233</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1405.737459147272</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7165,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>214.9229991561132</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>214.9229991561132</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1024.063349920563</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>855.1271669926557</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>705.0105275803199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>557.0974339979268</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>410.2074865000164</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>243.0113872148964</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>101.2995560570945</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1205.711814750802</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,7 +7423,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084667</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300426</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3807.864035926978</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>4420.931837070599</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811332</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532263</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V43" t="n">
-        <v>1870.601831589881</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.18466155292</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811332</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1360.39208240939</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1132.402531511373</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621885</v>
+        <v>30.36925650589404</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>186.5911984019041</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>138.9393975111051</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,22 +8531,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>14.25823202432656</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.160150103916</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-9.112520637813837e-14</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-2.048120440997544e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>-3.565849246091815e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T13" t="n">
-        <v>143.8269525734163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>32.89260457060008</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>43.72409101823416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>143.8269525734171</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>111.7546635373305</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>117.1847295890517</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="V28" t="n">
-        <v>129.660588598541</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>109.4223302771035</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>104.8770068749577</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>124.9899273367992</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>6.701087576230805</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>73.85777223953414</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>185.1299285698841</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>213.946807929556</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846404</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365053</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="K2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="L2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26371,19 +26371,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618637</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618638</v>
       </c>
-      <c r="C4" t="n">
-        <v>134318.0002618637</v>
-      </c>
       <c r="D4" t="n">
-        <v>134318.0002618636</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732023</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732019</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732022</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731947</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731945</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731942</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-644122.0518929877</v>
+        <v>-644122.0518929875</v>
       </c>
       <c r="C6" t="n">
-        <v>470629.7316829323</v>
+        <v>470629.7316829325</v>
       </c>
       <c r="D6" t="n">
-        <v>470629.7316829319</v>
+        <v>470629.7316829327</v>
       </c>
       <c r="E6" t="n">
-        <v>69349.32586132055</v>
+        <v>69001.94660696393</v>
       </c>
       <c r="F6" t="n">
-        <v>576834.7674858666</v>
+        <v>576487.3882315095</v>
       </c>
       <c r="G6" t="n">
-        <v>576834.7674858661</v>
+        <v>576487.3882315094</v>
       </c>
       <c r="H6" t="n">
-        <v>576834.7674858668</v>
+        <v>576487.3882315097</v>
       </c>
       <c r="I6" t="n">
-        <v>576834.7674858666</v>
+        <v>576487.3882315097</v>
       </c>
       <c r="J6" t="n">
-        <v>409229.589675884</v>
+        <v>408882.2104215269</v>
       </c>
       <c r="K6" t="n">
-        <v>576834.7674858663</v>
+        <v>576487.3882315097</v>
       </c>
       <c r="L6" t="n">
-        <v>576834.7674858664</v>
+        <v>576487.3882315096</v>
       </c>
       <c r="M6" t="n">
-        <v>444227.4737569398</v>
+        <v>443880.0945025829</v>
       </c>
       <c r="N6" t="n">
-        <v>576834.7674858666</v>
+        <v>576487.3882315098</v>
       </c>
       <c r="O6" t="n">
-        <v>576834.7674858668</v>
+        <v>576487.3882315096</v>
       </c>
       <c r="P6" t="n">
-        <v>576834.7674858666</v>
+        <v>576487.3882315097</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,13 +26792,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,34 +26965,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>325.5950022453498</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>197.2418787254188</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>40.2904669413391</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>167.1629403830169</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>67.12366336092157</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>234.7350105335005</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>143.5144969859805</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>99.81823663295135</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>146.7496008607631</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>244.8178821598212</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>111.6265002618893</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>73.68848447670769</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>439.2440297647763</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>595.3275373121714</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>485.1127032082907</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>689.7436082887207</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>312.3207226334973</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>362.1804684129204</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33660,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
         <v>867.8464071162563</v>
@@ -33733,13 +33733,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>249.1672590991327</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>750.6021172789098</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>318.3985571819317</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>328.0496171437443</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34792,16 +34792,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0158803980272</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35032,13 +35032,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>388.6189266346374</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091748</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.587496243485</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>381.1895643063672</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000392</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>300.6896499849021</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288382</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>342.5164587638463</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>547.6095743667024</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>174.4792836591384</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>224.3390294385614</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367765</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
         <v>632.079992146269</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>122.329632432466</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>619.2604051955765</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>176.2645232599133</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3025899.600247697</v>
+        <v>3027660.130550482</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8541127.360805277</v>
+        <v>8541127.360805275</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.67788952565776</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>94.0795014591807</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>126.0161331034651</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>66.40055121331423</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>344.4240394120324</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.9656533758499</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>94.8442237287861</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>154.2689517016423</v>
+        <v>284.220128340203</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>31.1081107271929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695533</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576169</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>106.2078024559165</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>104.1233804225859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>70.04554881124335</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>60.64713141731118</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>164.5981994227929</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>40.15381658332819</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218651</v>
+        <v>861.3216348137582</v>
       </c>
       <c r="C2" t="n">
-        <v>877.9374416333219</v>
+        <v>861.3216348137582</v>
       </c>
       <c r="D2" t="n">
-        <v>877.9374416333219</v>
+        <v>861.3216348137582</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>861.3216348137582</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>450.3357300241507</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
         <v>51.2467865680031</v>
@@ -4330,13 +4330,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218651</v>
+        <v>861.3216348137582</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>299.2648838844851</v>
       </c>
       <c r="L3" t="n">
-        <v>884.908532145821</v>
+        <v>593.9684409159568</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>957.2304598751767</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701986</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.2468199959893</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C4" t="n">
-        <v>729.3106370680824</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D4" t="n">
-        <v>579.1939976557467</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>431.2809040733536</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>284.3909565754432</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4527,13 +4527,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037537</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959893</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1195.924014069019</v>
+        <v>1449.505074804839</v>
       </c>
       <c r="C5" t="n">
-        <v>1195.924014069019</v>
+        <v>1080.542557864427</v>
       </c>
       <c r="D5" t="n">
-        <v>1195.924014069019</v>
+        <v>722.276859257677</v>
       </c>
       <c r="E5" t="n">
-        <v>810.1357614707747</v>
+        <v>336.4886066594327</v>
       </c>
       <c r="F5" t="n">
-        <v>399.1498566811671</v>
+        <v>329.5431059102293</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>317.8787596749222</v>
       </c>
       <c r="H5" t="n">
         <v>51.2467865680031</v>
@@ -4567,13 +4567,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4600,19 +4600,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1955.989612394221</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1582.523854133141</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1582.523854133141</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4649,25 +4649,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143493</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>884.908532145821</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4725,52 +4725,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1438.060467399387</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1438.060467399387</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1438.060467399387</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1438.060467399387</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1148.643297362426</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>920.6537464644088</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1373.778212738965</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="C8" t="n">
-        <v>1373.778212738965</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="D8" t="n">
-        <v>1015.512514132215</v>
+        <v>1146.77632891864</v>
       </c>
       <c r="E8" t="n">
-        <v>629.7242615339705</v>
+        <v>760.9880763203955</v>
       </c>
       <c r="F8" t="n">
-        <v>218.738356744363</v>
+        <v>350.002171530788</v>
       </c>
       <c r="G8" t="n">
-        <v>207.0740105090559</v>
+        <v>338.3378252954809</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4804,10 +4804,10 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087292</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.012626270159</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>1747.243971000045</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>1373.778212738965</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>1373.778212738965</v>
+        <v>1505.04202752539</v>
       </c>
     </row>
     <row r="9">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>397.5455328255065</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>250.6555853275961</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>82.66912063587472</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>82.66912063587472</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5035,43 +5035,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,31 +5527,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5752,22 +5752,22 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5831,16 +5831,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>636.6680198981028</v>
+        <v>982.1492342949679</v>
       </c>
       <c r="C22" t="n">
-        <v>467.7318369701959</v>
+        <v>813.213051367061</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578602</v>
+        <v>663.0964119547252</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>515.1833183723321</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>368.2933708744217</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>201.0972715893017</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>1039.109063871873</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>818.3164847283425</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
         <v>776.1751066403293</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
         <v>95.58405025273903</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2126.309465880251</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.624977674364</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6457,25 +6457,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6542,19 +6542,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>636.6680198981028</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>467.7318369701959</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578602</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1811.200273012738</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1556.515784806851</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1267.09861476989</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1039.109063871873</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>818.3164847283425</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7016,19 +7016,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7323,7 +7323,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,13 +7426,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0.9556134883069376</v>
       </c>
       <c r="L3" t="n">
-        <v>30.36925650589404</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780638</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-3.940996767551754e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>32.89260457060008</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>34.08691039030737</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>753387.2334592879</v>
+        <v>753387.233459288</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
@@ -26322,37 +26322,37 @@
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365053</v>
-      </c>
       <c r="H2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26426,16 +26426,16 @@
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731937</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731935</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26456,7 +26456,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26527,43 +26527,43 @@
         <v>470629.7316829325</v>
       </c>
       <c r="D6" t="n">
-        <v>470629.7316829327</v>
+        <v>470629.7316829325</v>
       </c>
       <c r="E6" t="n">
-        <v>69001.94660696393</v>
+        <v>69314.58793588493</v>
       </c>
       <c r="F6" t="n">
-        <v>576487.3882315095</v>
+        <v>576800.0295604311</v>
       </c>
       <c r="G6" t="n">
-        <v>576487.3882315094</v>
+        <v>576800.0295604309</v>
       </c>
       <c r="H6" t="n">
-        <v>576487.3882315097</v>
+        <v>576800.0295604309</v>
       </c>
       <c r="I6" t="n">
-        <v>576487.3882315097</v>
+        <v>576800.0295604309</v>
       </c>
       <c r="J6" t="n">
-        <v>408882.2104215269</v>
+        <v>409194.8517504486</v>
       </c>
       <c r="K6" t="n">
-        <v>576487.3882315097</v>
+        <v>576800.0295604311</v>
       </c>
       <c r="L6" t="n">
-        <v>576487.3882315096</v>
+        <v>576800.029560431</v>
       </c>
       <c r="M6" t="n">
-        <v>443880.0945025829</v>
+        <v>444192.7358315041</v>
       </c>
       <c r="N6" t="n">
-        <v>576487.3882315098</v>
+        <v>576800.0295604309</v>
       </c>
       <c r="O6" t="n">
-        <v>576487.3882315096</v>
+        <v>576800.0295604309</v>
       </c>
       <c r="P6" t="n">
-        <v>576487.3882315097</v>
+        <v>576800.029560431</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26798,13 +26798,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>325.5950022453498</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>317.4682013137733</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>40.2904669413391</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>220.1224471232768</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>67.12366336092157</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>37.05289918655552</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>99.81823663295135</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>146.7496008607631</v>
+        <v>16.79842422220241</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27906,13 +27906,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>73.68848447670769</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>595.3275373121714</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>248.0319961154043</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543357</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33262,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33435,7 +33435,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34210,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>187.5431097317917</v>
       </c>
       <c r="L3" t="n">
-        <v>328.0496171437443</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215487</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288382</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997668</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
